--- a/052c doc/dcp_model_version/conv1x1_sparsity.xlsx
+++ b/052c doc/dcp_model_version/conv1x1_sparsity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\310-w\Desktop\TempGit\FG-052D\052c doc\dcp_model_version\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5FA518A-D2EC-40DF-A91D-8336ECC2FE33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CED72F5-4D15-45AB-9769-16CC607FFA7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24" yWindow="12" windowWidth="23016" windowHeight="12348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1205,7 +1205,7 @@
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/052c doc/dcp_model_version/conv1x1_sparsity.xlsx
+++ b/052c doc/dcp_model_version/conv1x1_sparsity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\310-w\Desktop\TempGit\FG-052D\052c doc\dcp_model_version\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CED72F5-4D15-45AB-9769-16CC607FFA7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EB1AF5F-DFD7-43DE-A960-EBDBFB873CEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24" yWindow="12" windowWidth="23016" windowHeight="12348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -96,6 +96,35 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>conv1x1</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>输出稀疏度</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1205,7 +1234,7 @@
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/052c doc/dcp_model_version/conv1x1_sparsity.xlsx
+++ b/052c doc/dcp_model_version/conv1x1_sparsity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\310-w\Desktop\TempGit\FG-052D\052c doc\dcp_model_version\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\wd\FG-052D\FG-052D\052c doc\dcp_model_version\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EB1AF5F-DFD7-43DE-A960-EBDBFB873CEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B58E99B-BCD2-4955-95E4-8D9D08CEE712}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="12" windowWidth="23016" windowHeight="12348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,15 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>那</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1231,60 +1240,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>0.42353641636626999</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0.33608671875000001</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0.30824192244486798</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0.30499545651328802</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0.58640002175660799</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0.49381072766468698</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0.48589870410128599</v>
       </c>
+      <c r="P7" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0.79292075707476295</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0.665601607890691</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>0.70234461518412405</v>
       </c>
